--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Pdcd1lg2</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.162279648905266</v>
+        <v>0.204407</v>
       </c>
       <c r="H2">
-        <v>0.162279648905266</v>
+        <v>0.613221</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2212630396213977</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2212630396213977</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="N2">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="O2">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="P2">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="Q2">
-        <v>1.632876507873017</v>
+        <v>2.0571409078185</v>
       </c>
       <c r="R2">
-        <v>1.632876507873017</v>
+        <v>12.342845446911</v>
       </c>
       <c r="S2">
-        <v>0.1992633942288312</v>
+        <v>0.04073616007964383</v>
       </c>
       <c r="T2">
-        <v>0.1992633942288312</v>
+        <v>0.03392060266869634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.162279648905266</v>
+        <v>0.204407</v>
       </c>
       <c r="H3">
-        <v>0.162279648905266</v>
+        <v>0.613221</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2212630396213977</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2212630396213977</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N3">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="O3">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="P3">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="Q3">
-        <v>0.8533467872128269</v>
+        <v>1.135728081198667</v>
       </c>
       <c r="R3">
-        <v>0.8533467872128269</v>
+        <v>10.221552730788</v>
       </c>
       <c r="S3">
-        <v>0.1041357239536693</v>
+        <v>0.02249004953759714</v>
       </c>
       <c r="T3">
-        <v>0.1041357239536693</v>
+        <v>0.02809086691796505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.162279648905266</v>
+        <v>0.204407</v>
       </c>
       <c r="H4">
-        <v>0.162279648905266</v>
+        <v>0.613221</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2212630396213977</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2212630396213977</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="N4">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="O4">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="P4">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="Q4">
-        <v>0.4888869341146814</v>
+        <v>0.6211150620686666</v>
       </c>
       <c r="R4">
-        <v>0.4888869341146814</v>
+        <v>5.590035558618</v>
       </c>
       <c r="S4">
-        <v>0.05965991268544488</v>
+        <v>0.01229951847252822</v>
       </c>
       <c r="T4">
-        <v>0.05965991268544488</v>
+        <v>0.01536253337233677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.162279648905266</v>
+        <v>0.204407</v>
       </c>
       <c r="H5">
-        <v>0.162279648905266</v>
+        <v>0.613221</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2212630396213977</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2212630396213977</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="N5">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="O5">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="P5">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="Q5">
-        <v>0.5801648914689027</v>
+        <v>0.7514622717280001</v>
       </c>
       <c r="R5">
-        <v>0.5801648914689027</v>
+        <v>6.763160445552</v>
       </c>
       <c r="S5">
-        <v>0.07079875601681765</v>
+        <v>0.01488069547330467</v>
       </c>
       <c r="T5">
-        <v>0.07079875601681765</v>
+        <v>0.01858651469346774</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.162279648905266</v>
+        <v>0.204407</v>
       </c>
       <c r="H6">
-        <v>0.162279648905266</v>
+        <v>0.613221</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.2212630396213977</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.2212630396213977</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="N6">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="O6">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="P6">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="Q6">
-        <v>1.408845929218238</v>
+        <v>1.981842445125667</v>
       </c>
       <c r="R6">
-        <v>1.408845929218238</v>
+        <v>17.836582006131</v>
       </c>
       <c r="S6">
-        <v>0.1719244660866474</v>
+        <v>0.03924507591601251</v>
       </c>
       <c r="T6">
-        <v>0.1719244660866474</v>
+        <v>0.04901848717136829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,805 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.162279648905266</v>
+        <v>0.204407</v>
       </c>
       <c r="H7">
-        <v>0.162279648905266</v>
+        <v>0.613221</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.2212630396213977</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.2212630396213977</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="N7">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="O7">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="P7">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="Q7">
-        <v>3.230442302766289</v>
+        <v>4.6263036694315</v>
       </c>
       <c r="R7">
-        <v>3.230442302766289</v>
+        <v>27.757822016589</v>
       </c>
       <c r="S7">
-        <v>0.3942177470285897</v>
+        <v>0.09161154014231131</v>
       </c>
       <c r="T7">
-        <v>0.3942177470285897</v>
+        <v>0.07628403479756349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6734076666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.020223</v>
+      </c>
+      <c r="I8">
+        <v>0.7289389660384412</v>
+      </c>
+      <c r="J8">
+        <v>0.7289389660384412</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.0639455</v>
+      </c>
+      <c r="N8">
+        <v>20.127891</v>
+      </c>
+      <c r="O8">
+        <v>0.1841073870690167</v>
+      </c>
+      <c r="P8">
+        <v>0.1533044232183457</v>
+      </c>
+      <c r="Q8">
+        <v>6.7771380566155</v>
+      </c>
+      <c r="R8">
+        <v>40.662828339693</v>
+      </c>
+      <c r="S8">
+        <v>0.1342030483701281</v>
+      </c>
+      <c r="T8">
+        <v>0.1117495677499005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6734076666666667</v>
+      </c>
+      <c r="H9">
+        <v>2.020223</v>
+      </c>
+      <c r="I9">
+        <v>0.7289389660384412</v>
+      </c>
+      <c r="J9">
+        <v>0.7289389660384412</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.556209333333332</v>
+      </c>
+      <c r="N9">
+        <v>16.668628</v>
+      </c>
+      <c r="O9">
+        <v>0.1016439509105532</v>
+      </c>
+      <c r="P9">
+        <v>0.1269568879015276</v>
+      </c>
+      <c r="Q9">
+        <v>3.741593962671555</v>
+      </c>
+      <c r="R9">
+        <v>33.674345664044</v>
+      </c>
+      <c r="S9">
+        <v>0.07409223648080074</v>
+      </c>
+      <c r="T9">
+        <v>0.09254382259839783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.6734076666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.020223</v>
+      </c>
+      <c r="I10">
+        <v>0.7289389660384412</v>
+      </c>
+      <c r="J10">
+        <v>0.7289389660384412</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.038619333333333</v>
+      </c>
+      <c r="N10">
+        <v>9.115857999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.05558776781505795</v>
+      </c>
+      <c r="P10">
+        <v>0.06943108708360662</v>
+      </c>
+      <c r="Q10">
+        <v>2.046229555148222</v>
+      </c>
+      <c r="R10">
+        <v>18.416065996334</v>
+      </c>
+      <c r="S10">
+        <v>0.04052008999549329</v>
+      </c>
+      <c r="T10">
+        <v>0.05061102482964918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6734076666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.020223</v>
+      </c>
+      <c r="I11">
+        <v>0.7289389660384412</v>
+      </c>
+      <c r="J11">
+        <v>0.7289389660384412</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.676304</v>
+      </c>
+      <c r="N11">
+        <v>11.028912</v>
+      </c>
+      <c r="O11">
+        <v>0.06725341701337455</v>
+      </c>
+      <c r="P11">
+        <v>0.08400189532454698</v>
+      </c>
+      <c r="Q11">
+        <v>2.475651298597334</v>
+      </c>
+      <c r="R11">
+        <v>22.280861687376</v>
+      </c>
+      <c r="S11">
+        <v>0.04902363626028135</v>
+      </c>
+      <c r="T11">
+        <v>0.06123225472314465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6734076666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.020223</v>
+      </c>
+      <c r="I12">
+        <v>0.7289389660384412</v>
+      </c>
+      <c r="J12">
+        <v>0.7289389660384412</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>9.695570333333334</v>
+      </c>
+      <c r="N12">
+        <v>29.086711</v>
+      </c>
+      <c r="O12">
+        <v>0.1773684207862488</v>
+      </c>
+      <c r="P12">
+        <v>0.2215394277112148</v>
+      </c>
+      <c r="Q12">
+        <v>6.529071395172557</v>
+      </c>
+      <c r="R12">
+        <v>58.76164255655301</v>
+      </c>
+      <c r="S12">
+        <v>0.1292907532557994</v>
+      </c>
+      <c r="T12">
+        <v>0.1614887213725609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6734076666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.020223</v>
+      </c>
+      <c r="I13">
+        <v>0.7289389660384412</v>
+      </c>
+      <c r="J13">
+        <v>0.7289389660384412</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>22.6328045</v>
+      </c>
+      <c r="N13">
+        <v>45.265609</v>
+      </c>
+      <c r="O13">
+        <v>0.4140390564057488</v>
+      </c>
+      <c r="P13">
+        <v>0.3447662787607582</v>
+      </c>
+      <c r="Q13">
+        <v>15.24110406846783</v>
+      </c>
+      <c r="R13">
+        <v>91.446624410807</v>
+      </c>
+      <c r="S13">
+        <v>0.3018092016759384</v>
+      </c>
+      <c r="T13">
+        <v>0.2513135747647881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04600433333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.138013</v>
+      </c>
+      <c r="I14">
+        <v>0.04979799434016115</v>
+      </c>
+      <c r="J14">
+        <v>0.04979799434016115</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.0639455</v>
+      </c>
+      <c r="N14">
+        <v>20.127891</v>
+      </c>
+      <c r="O14">
+        <v>0.1841073870690167</v>
+      </c>
+      <c r="P14">
+        <v>0.1533044232183457</v>
+      </c>
+      <c r="Q14">
+        <v>0.4629851034305</v>
+      </c>
+      <c r="R14">
+        <v>2.777910620583</v>
+      </c>
+      <c r="S14">
+        <v>0.00916817861924475</v>
+      </c>
+      <c r="T14">
+        <v>0.007634252799748848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04600433333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.138013</v>
+      </c>
+      <c r="I15">
+        <v>0.04979799434016115</v>
+      </c>
+      <c r="J15">
+        <v>0.04979799434016115</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.556209333333332</v>
+      </c>
+      <c r="N15">
+        <v>16.668628</v>
+      </c>
+      <c r="O15">
+        <v>0.1016439509105532</v>
+      </c>
+      <c r="P15">
+        <v>0.1269568879015276</v>
+      </c>
+      <c r="Q15">
+        <v>0.2556097062404444</v>
+      </c>
+      <c r="R15">
+        <v>2.300487356164</v>
+      </c>
+      <c r="S15">
+        <v>0.005061664892155347</v>
+      </c>
+      <c r="T15">
+        <v>0.006322198385164747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04600433333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.138013</v>
+      </c>
+      <c r="I16">
+        <v>0.04979799434016115</v>
+      </c>
+      <c r="J16">
+        <v>0.04979799434016115</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.038619333333333</v>
+      </c>
+      <c r="N16">
+        <v>9.115857999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.05558776781505795</v>
+      </c>
+      <c r="P16">
+        <v>0.06943108708360662</v>
+      </c>
+      <c r="Q16">
+        <v>0.1397896566837778</v>
+      </c>
+      <c r="R16">
+        <v>1.258106910154</v>
+      </c>
+      <c r="S16">
+        <v>0.002768159347036448</v>
+      </c>
+      <c r="T16">
+        <v>0.003457528881620679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04600433333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.138013</v>
+      </c>
+      <c r="I17">
+        <v>0.04979799434016115</v>
+      </c>
+      <c r="J17">
+        <v>0.04979799434016115</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.676304</v>
+      </c>
+      <c r="N17">
+        <v>11.028912</v>
+      </c>
+      <c r="O17">
+        <v>0.06725341701337455</v>
+      </c>
+      <c r="P17">
+        <v>0.08400189532454698</v>
+      </c>
+      <c r="Q17">
+        <v>0.1691259146506667</v>
+      </c>
+      <c r="R17">
+        <v>1.522133231856</v>
+      </c>
+      <c r="S17">
+        <v>0.003349085279788523</v>
+      </c>
+      <c r="T17">
+        <v>0.0041831259079346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04600433333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.138013</v>
+      </c>
+      <c r="I18">
+        <v>0.04979799434016115</v>
+      </c>
+      <c r="J18">
+        <v>0.04979799434016115</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.695570333333334</v>
+      </c>
+      <c r="N18">
+        <v>29.086711</v>
+      </c>
+      <c r="O18">
+        <v>0.1773684207862488</v>
+      </c>
+      <c r="P18">
+        <v>0.2215394277112148</v>
+      </c>
+      <c r="Q18">
+        <v>0.4460382494714445</v>
+      </c>
+      <c r="R18">
+        <v>4.014344245243</v>
+      </c>
+      <c r="S18">
+        <v>0.00883259161443694</v>
+      </c>
+      <c r="T18">
+        <v>0.01103221916728562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04600433333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.138013</v>
+      </c>
+      <c r="I19">
+        <v>0.04979799434016115</v>
+      </c>
+      <c r="J19">
+        <v>0.04979799434016115</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>22.6328045</v>
+      </c>
+      <c r="N19">
+        <v>45.265609</v>
+      </c>
+      <c r="O19">
+        <v>0.4140390564057488</v>
+      </c>
+      <c r="P19">
+        <v>0.3447662787607582</v>
+      </c>
+      <c r="Q19">
+        <v>1.041207082486167</v>
+      </c>
+      <c r="R19">
+        <v>6.247242494917</v>
+      </c>
+      <c r="S19">
+        <v>0.02061831458749914</v>
+      </c>
+      <c r="T19">
+        <v>0.01716866919840666</v>
       </c>
     </row>
   </sheetData>
